--- a/result/interactions_download/Gastric_cancer_precog_mut.xlsx
+++ b/result/interactions_download/Gastric_cancer_precog_mut.xlsx
@@ -1608,13 +1608,13 @@
     <t xml:space="preserve">P2RY13</t>
   </si>
   <si>
+    <t xml:space="preserve">RICTOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">from</t>
   </si>
   <si>
     <t xml:space="preserve">to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RICTOR</t>
   </si>
 </sst>
 </file>
@@ -12386,6 +12386,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>531</v>
+      </c>
+      <c r="B523"/>
+      <c r="C523"/>
+      <c r="D523"/>
+      <c r="E523"/>
+      <c r="F523"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -12402,10 +12412,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2">
@@ -12541,7 +12551,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19">
@@ -12853,7 +12863,7 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="58">
@@ -12954,7 +12964,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
@@ -13037,7 +13047,7 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="81">
@@ -13074,7 +13084,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B85" t="s">
         <v>14</v>
@@ -13245,7 +13255,7 @@
         <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="107">
@@ -14165,7 +14175,7 @@
         <v>26</v>
       </c>
       <c r="B221" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="222">
@@ -14285,7 +14295,7 @@
         <v>28</v>
       </c>
       <c r="B236" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="237">
@@ -14309,7 +14319,7 @@
         <v>29</v>
       </c>
       <c r="B239" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="240">
@@ -14562,7 +14572,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B271" t="s">
         <v>33</v>
@@ -14869,7 +14879,7 @@
         <v>37</v>
       </c>
       <c r="B309" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="310">
@@ -14909,7 +14919,7 @@
         <v>38</v>
       </c>
       <c r="B314" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="315">
@@ -15101,7 +15111,7 @@
         <v>42</v>
       </c>
       <c r="B338" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="339">
@@ -15346,7 +15356,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B369" t="s">
         <v>48</v>
@@ -16189,7 +16199,7 @@
         <v>70</v>
       </c>
       <c r="B474" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="475">
@@ -16261,7 +16271,7 @@
         <v>72</v>
       </c>
       <c r="B483" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="484">
@@ -16461,7 +16471,7 @@
         <v>79</v>
       </c>
       <c r="B508" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="509">
@@ -16589,7 +16599,7 @@
         <v>83</v>
       </c>
       <c r="B524" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="525">
@@ -16757,7 +16767,7 @@
         <v>90</v>
       </c>
       <c r="B545" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="546">
@@ -16882,7 +16892,7 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B561" t="s">
         <v>96</v>
@@ -17045,7 +17055,7 @@
         <v>101</v>
       </c>
       <c r="B581" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="582">
@@ -17541,7 +17551,7 @@
         <v>127</v>
       </c>
       <c r="B643" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="644">
@@ -18554,7 +18564,7 @@
     </row>
     <row r="770">
       <c r="A770" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B770" t="s">
         <v>217</v>
